--- a/ClueBoard/ClueBoard.xlsx
+++ b/ClueBoard/ClueBoard.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="34">
   <si>
     <t>F</t>
   </si>
@@ -104,12 +104,6 @@
   </si>
   <si>
     <t>Walkway</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Door</t>
   </si>
   <si>
     <t>SD</t>
@@ -213,7 +207,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -223,10 +217,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -384,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="L24" activeCellId="0" pane="topLeft" sqref="L24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A26" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="Z40" activeCellId="0" pane="topLeft" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1425,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1497,12 +1487,6 @@
       </c>
       <c r="X14" s="0" t="n">
         <v>13</v>
-      </c>
-      <c r="Z14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
@@ -1510,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
@@ -1605,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1620,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>2</v>
@@ -1703,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>22</v>
@@ -1735,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -2242,1781 +2226,32 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="29">
-      <c r="A29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="R29" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="S29" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="T29" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U29" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="V29" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="W29" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="30">
-      <c r="A30" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="N30" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="R30" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="S30" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="T30" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="U30" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="V30" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="W30" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="X30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="31">
-      <c r="A31" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>58</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q31" s="3" t="n">
-        <v>62</v>
-      </c>
-      <c r="R31" s="3" t="n">
-        <v>63</v>
-      </c>
-      <c r="S31" s="3" t="n">
-        <v>64</v>
-      </c>
-      <c r="T31" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="U31" s="3" t="n">
-        <v>66</v>
-      </c>
-      <c r="V31" s="3" t="n">
-        <v>67</v>
-      </c>
-      <c r="W31" s="3" t="n">
-        <v>68</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="32">
-      <c r="A32" s="3" t="n">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>73</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>74</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>76</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>77</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>78</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>79</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>80</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>81</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>82</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>83</v>
-      </c>
-      <c r="P32" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q32" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="R32" s="3" t="n">
-        <v>86</v>
-      </c>
-      <c r="S32" s="3" t="n">
-        <v>87</v>
-      </c>
-      <c r="T32" s="3" t="n">
-        <v>88</v>
-      </c>
-      <c r="U32" s="3" t="n">
-        <v>89</v>
-      </c>
-      <c r="V32" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="W32" s="3" t="n">
-        <v>91</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="33">
-      <c r="A33" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>93</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>94</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>97</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>98</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>99</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>102</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>103</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>106</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>107</v>
-      </c>
-      <c r="Q33" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="R33" s="3" t="n">
-        <v>109</v>
-      </c>
-      <c r="S33" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="T33" s="3" t="n">
-        <v>111</v>
-      </c>
-      <c r="U33" s="3" t="n">
-        <v>112</v>
-      </c>
-      <c r="V33" s="3" t="n">
-        <v>113</v>
-      </c>
-      <c r="W33" s="3" t="n">
-        <v>114</v>
-      </c>
-      <c r="X33" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="34">
-      <c r="A34" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>116</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>118</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>119</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>121</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>122</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>123</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>124</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>125</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="N34" s="3" t="n">
-        <v>128</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>129</v>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q34" s="3" t="n">
-        <v>131</v>
-      </c>
-      <c r="R34" s="3" t="n">
-        <v>132</v>
-      </c>
-      <c r="S34" s="3" t="n">
-        <v>133</v>
-      </c>
-      <c r="T34" s="3" t="n">
-        <v>134</v>
-      </c>
-      <c r="U34" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="V34" s="3" t="n">
-        <v>136</v>
-      </c>
-      <c r="W34" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="35">
-      <c r="A35" s="3" t="n">
-        <v>138</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>139</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>141</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>142</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>144</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>145</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>146</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>147</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>148</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>149</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="N35" s="3" t="n">
-        <v>151</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>152</v>
-      </c>
-      <c r="P35" s="3" t="n">
-        <v>153</v>
-      </c>
-      <c r="Q35" s="3" t="n">
-        <v>154</v>
-      </c>
-      <c r="R35" s="3" t="n">
-        <v>155</v>
-      </c>
-      <c r="S35" s="3" t="n">
-        <v>156</v>
-      </c>
-      <c r="T35" s="3" t="n">
-        <v>157</v>
-      </c>
-      <c r="U35" s="3" t="n">
-        <v>158</v>
-      </c>
-      <c r="V35" s="3" t="n">
-        <v>159</v>
-      </c>
-      <c r="W35" s="3" t="n">
-        <v>160</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="36">
-      <c r="A36" s="3" t="n">
-        <v>161</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>162</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>163</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>164</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>165</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>166</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>167</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>169</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>170</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>171</v>
-      </c>
-      <c r="L36" s="3" t="n">
-        <v>172</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>173</v>
-      </c>
-      <c r="N36" s="3" t="n">
-        <v>174</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>175</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>176</v>
-      </c>
-      <c r="Q36" s="3" t="n">
-        <v>177</v>
-      </c>
-      <c r="R36" s="3" t="n">
-        <v>178</v>
-      </c>
-      <c r="S36" s="3" t="n">
-        <v>179</v>
-      </c>
-      <c r="T36" s="3" t="n">
-        <v>180</v>
-      </c>
-      <c r="U36" s="3" t="n">
-        <v>181</v>
-      </c>
-      <c r="V36" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="W36" s="3" t="n">
-        <v>183</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="37">
-      <c r="A37" s="3" t="n">
-        <v>184</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>185</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>186</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>187</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>188</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>189</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>190</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>191</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>192</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>193</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>194</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>195</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>196</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>197</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>198</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q37" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>201</v>
-      </c>
-      <c r="S37" s="3" t="n">
-        <v>202</v>
-      </c>
-      <c r="T37" s="3" t="n">
-        <v>203</v>
-      </c>
-      <c r="U37" s="3" t="n">
-        <v>204</v>
-      </c>
-      <c r="V37" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="W37" s="3" t="n">
-        <v>206</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="38">
-      <c r="A38" s="3" t="n">
-        <v>207</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>208</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>209</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>210</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>211</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>212</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>213</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>214</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>215</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>216</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>217</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>218</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>219</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>221</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>222</v>
-      </c>
-      <c r="Q38" s="3" t="n">
-        <v>223</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>224</v>
-      </c>
-      <c r="S38" s="3" t="n">
-        <v>225</v>
-      </c>
-      <c r="T38" s="3" t="n">
-        <v>226</v>
-      </c>
-      <c r="U38" s="3" t="n">
-        <v>227</v>
-      </c>
-      <c r="V38" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="W38" s="3" t="n">
-        <v>229</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="39">
-      <c r="A39" s="3" t="n">
-        <v>230</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>232</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>233</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>234</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>235</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>236</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>237</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>238</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>239</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>240</v>
-      </c>
-      <c r="L39" s="3" t="n">
-        <v>241</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>242</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>243</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>244</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>245</v>
-      </c>
-      <c r="Q39" s="3" t="n">
-        <v>246</v>
-      </c>
-      <c r="R39" s="3" t="n">
-        <v>247</v>
-      </c>
-      <c r="S39" s="3" t="n">
-        <v>248</v>
-      </c>
-      <c r="T39" s="3" t="n">
-        <v>249</v>
-      </c>
-      <c r="U39" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="V39" s="3" t="n">
-        <v>251</v>
-      </c>
-      <c r="W39" s="3" t="n">
-        <v>252</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="40">
-      <c r="A40" s="3" t="n">
-        <v>253</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>254</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>255</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>256</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>257</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>258</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>259</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>260</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>261</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>262</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>263</v>
-      </c>
-      <c r="L40" s="3" t="n">
-        <v>264</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>265</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>267</v>
-      </c>
-      <c r="P40" s="3" t="n">
-        <v>268</v>
-      </c>
-      <c r="Q40" s="3" t="n">
-        <v>269</v>
-      </c>
-      <c r="R40" s="3" t="n">
-        <v>270</v>
-      </c>
-      <c r="S40" s="3" t="n">
-        <v>271</v>
-      </c>
-      <c r="T40" s="3" t="n">
-        <v>272</v>
-      </c>
-      <c r="U40" s="3" t="n">
-        <v>273</v>
-      </c>
-      <c r="V40" s="3" t="n">
-        <v>274</v>
-      </c>
-      <c r="W40" s="3" t="n">
-        <v>275</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="41">
-      <c r="A41" s="3" t="n">
-        <v>276</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>277</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>278</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>279</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>280</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>281</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>282</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>283</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>284</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>285</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>286</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>287</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>288</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>289</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>290</v>
-      </c>
-      <c r="P41" s="3" t="n">
-        <v>291</v>
-      </c>
-      <c r="Q41" s="3" t="n">
-        <v>292</v>
-      </c>
-      <c r="R41" s="3" t="n">
-        <v>293</v>
-      </c>
-      <c r="S41" s="3" t="n">
-        <v>294</v>
-      </c>
-      <c r="T41" s="3" t="n">
-        <v>295</v>
-      </c>
-      <c r="U41" s="3" t="n">
-        <v>296</v>
-      </c>
-      <c r="V41" s="3" t="n">
-        <v>297</v>
-      </c>
-      <c r="W41" s="3" t="n">
-        <v>298</v>
-      </c>
-      <c r="X41" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="42">
-      <c r="A42" s="3" t="n">
-        <v>299</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>301</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>302</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>303</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>304</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>305</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>306</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>307</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>308</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>309</v>
-      </c>
-      <c r="L42" s="3" t="n">
-        <v>310</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>311</v>
-      </c>
-      <c r="N42" s="3" t="n">
-        <v>312</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>313</v>
-      </c>
-      <c r="P42" s="3" t="n">
-        <v>314</v>
-      </c>
-      <c r="Q42" s="3" t="n">
-        <v>315</v>
-      </c>
-      <c r="R42" s="3" t="n">
-        <v>316</v>
-      </c>
-      <c r="S42" s="3" t="n">
-        <v>317</v>
-      </c>
-      <c r="T42" s="3" t="n">
-        <v>318</v>
-      </c>
-      <c r="U42" s="3" t="n">
-        <v>319</v>
-      </c>
-      <c r="V42" s="3" t="n">
-        <v>320</v>
-      </c>
-      <c r="W42" s="3" t="n">
-        <v>321</v>
-      </c>
-      <c r="X42" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="43">
-      <c r="A43" s="3" t="n">
-        <v>322</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>323</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>324</v>
-      </c>
-      <c r="D43" s="3" t="n">
-        <v>325</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>326</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>327</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>328</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>329</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>330</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>331</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>332</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>333</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>334</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>335</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>336</v>
-      </c>
-      <c r="P43" s="3" t="n">
-        <v>337</v>
-      </c>
-      <c r="Q43" s="3" t="n">
-        <v>338</v>
-      </c>
-      <c r="R43" s="3" t="n">
-        <v>339</v>
-      </c>
-      <c r="S43" s="3" t="n">
-        <v>340</v>
-      </c>
-      <c r="T43" s="3" t="n">
-        <v>341</v>
-      </c>
-      <c r="U43" s="3" t="n">
-        <v>342</v>
-      </c>
-      <c r="V43" s="3" t="n">
-        <v>343</v>
-      </c>
-      <c r="W43" s="3" t="n">
-        <v>344</v>
-      </c>
-      <c r="X43" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="44">
-      <c r="A44" s="3" t="n">
-        <v>345</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>346</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>347</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>348</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>349</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>350</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>351</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>352</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>353</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>354</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>355</v>
-      </c>
-      <c r="L44" s="3" t="n">
-        <v>356</v>
-      </c>
-      <c r="M44" s="3" t="n">
-        <v>357</v>
-      </c>
-      <c r="N44" s="3" t="n">
-        <v>358</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>359</v>
-      </c>
-      <c r="P44" s="3" t="n">
-        <v>360</v>
-      </c>
-      <c r="Q44" s="3" t="n">
-        <v>361</v>
-      </c>
-      <c r="R44" s="3" t="n">
-        <v>362</v>
-      </c>
-      <c r="S44" s="3" t="n">
-        <v>363</v>
-      </c>
-      <c r="T44" s="3" t="n">
-        <v>364</v>
-      </c>
-      <c r="U44" s="3" t="n">
-        <v>365</v>
-      </c>
-      <c r="V44" s="3" t="n">
-        <v>366</v>
-      </c>
-      <c r="W44" s="3" t="n">
-        <v>367</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="45">
-      <c r="A45" s="3" t="n">
-        <v>368</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>369</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>371</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>372</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>373</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>374</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>375</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>376</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>377</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>378</v>
-      </c>
-      <c r="L45" s="3" t="n">
-        <v>379</v>
-      </c>
-      <c r="M45" s="3" t="n">
-        <v>380</v>
-      </c>
-      <c r="N45" s="3" t="n">
-        <v>381</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>383</v>
-      </c>
-      <c r="Q45" s="3" t="n">
-        <v>384</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>385</v>
-      </c>
-      <c r="S45" s="3" t="n">
-        <v>386</v>
-      </c>
-      <c r="T45" s="3" t="n">
-        <v>387</v>
-      </c>
-      <c r="U45" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="V45" s="3" t="n">
-        <v>389</v>
-      </c>
-      <c r="W45" s="3" t="n">
-        <v>390</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="46">
-      <c r="A46" s="3" t="n">
-        <v>391</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>392</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>393</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>394</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>395</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>396</v>
-      </c>
-      <c r="G46" s="3" t="n">
-        <v>397</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>398</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>399</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <v>401</v>
-      </c>
-      <c r="L46" s="3" t="n">
-        <v>402</v>
-      </c>
-      <c r="M46" s="3" t="n">
-        <v>403</v>
-      </c>
-      <c r="N46" s="3" t="n">
-        <v>404</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>405</v>
-      </c>
-      <c r="P46" s="3" t="n">
-        <v>406</v>
-      </c>
-      <c r="Q46" s="3" t="n">
-        <v>407</v>
-      </c>
-      <c r="R46" s="3" t="n">
-        <v>408</v>
-      </c>
-      <c r="S46" s="3" t="n">
-        <v>409</v>
-      </c>
-      <c r="T46" s="3" t="n">
-        <v>410</v>
-      </c>
-      <c r="U46" s="3" t="n">
-        <v>411</v>
-      </c>
-      <c r="V46" s="3" t="n">
-        <v>412</v>
-      </c>
-      <c r="W46" s="3" t="n">
-        <v>413</v>
-      </c>
-      <c r="X46" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="47">
-      <c r="A47" s="3" t="n">
-        <v>414</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>415</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>416</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>417</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>418</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>419</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>420</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>421</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>422</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>423</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>424</v>
-      </c>
-      <c r="L47" s="3" t="n">
-        <v>425</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>426</v>
-      </c>
-      <c r="N47" s="3" t="n">
-        <v>427</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <v>428</v>
-      </c>
-      <c r="P47" s="3" t="n">
-        <v>429</v>
-      </c>
-      <c r="Q47" s="3" t="n">
-        <v>430</v>
-      </c>
-      <c r="R47" s="3" t="n">
-        <v>431</v>
-      </c>
-      <c r="S47" s="3" t="n">
-        <v>432</v>
-      </c>
-      <c r="T47" s="3" t="n">
-        <v>433</v>
-      </c>
-      <c r="U47" s="3" t="n">
-        <v>434</v>
-      </c>
-      <c r="V47" s="3" t="n">
-        <v>435</v>
-      </c>
-      <c r="W47" s="3" t="n">
-        <v>436</v>
-      </c>
-      <c r="X47" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="48">
-      <c r="A48" s="3" t="n">
-        <v>437</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>438</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>439</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>440</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>441</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>442</v>
-      </c>
-      <c r="G48" s="3" t="n">
-        <v>443</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>444</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>445</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>446</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>447</v>
-      </c>
-      <c r="L48" s="3" t="n">
-        <v>448</v>
-      </c>
-      <c r="M48" s="3" t="n">
-        <v>449</v>
-      </c>
-      <c r="N48" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>451</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <v>452</v>
-      </c>
-      <c r="Q48" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="R48" s="3" t="n">
-        <v>454</v>
-      </c>
-      <c r="S48" s="3" t="n">
-        <v>455</v>
-      </c>
-      <c r="T48" s="3" t="n">
-        <v>456</v>
-      </c>
-      <c r="U48" s="3" t="n">
-        <v>457</v>
-      </c>
-      <c r="V48" s="3" t="n">
-        <v>458</v>
-      </c>
-      <c r="W48" s="3" t="n">
-        <v>459</v>
-      </c>
-      <c r="X48" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="49">
-      <c r="A49" s="3" t="n">
-        <v>460</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>461</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>462</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>463</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>464</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>465</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <v>466</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>467</v>
-      </c>
-      <c r="I49" s="3" t="n">
-        <v>468</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>469</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>470</v>
-      </c>
-      <c r="L49" s="3" t="n">
-        <v>471</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>472</v>
-      </c>
-      <c r="N49" s="3" t="n">
-        <v>473</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>474</v>
-      </c>
-      <c r="P49" s="3" t="n">
-        <v>475</v>
-      </c>
-      <c r="Q49" s="3" t="n">
-        <v>476</v>
-      </c>
-      <c r="R49" s="3" t="n">
-        <v>477</v>
-      </c>
-      <c r="S49" s="3" t="n">
-        <v>478</v>
-      </c>
-      <c r="T49" s="3" t="n">
-        <v>479</v>
-      </c>
-      <c r="U49" s="3" t="n">
-        <v>480</v>
-      </c>
-      <c r="V49" s="3" t="n">
-        <v>481</v>
-      </c>
-      <c r="W49" s="3" t="n">
-        <v>482</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="50">
-      <c r="A50" s="3" t="n">
-        <v>483</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>484</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>485</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>486</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>487</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>488</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>489</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>490</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>491</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>492</v>
-      </c>
-      <c r="K50" s="3" t="n">
-        <v>493</v>
-      </c>
-      <c r="L50" s="3" t="n">
-        <v>494</v>
-      </c>
-      <c r="M50" s="3" t="n">
-        <v>495</v>
-      </c>
-      <c r="N50" s="3" t="n">
-        <v>496</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <v>497</v>
-      </c>
-      <c r="P50" s="3" t="n">
-        <v>498</v>
-      </c>
-      <c r="Q50" s="3" t="n">
-        <v>499</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="S50" s="3" t="n">
-        <v>501</v>
-      </c>
-      <c r="T50" s="3" t="n">
-        <v>502</v>
-      </c>
-      <c r="U50" s="3" t="n">
-        <v>503</v>
-      </c>
-      <c r="V50" s="3" t="n">
-        <v>504</v>
-      </c>
-      <c r="W50" s="3" t="n">
-        <v>505</v>
-      </c>
-      <c r="X50" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="51">
-      <c r="A51" s="3" t="n">
-        <v>506</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>507</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>508</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>509</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>510</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>511</v>
-      </c>
-      <c r="G51" s="3" t="n">
-        <v>512</v>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>513</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>514</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>515</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>516</v>
-      </c>
-      <c r="L51" s="3" t="n">
-        <v>517</v>
-      </c>
-      <c r="M51" s="3" t="n">
-        <v>518</v>
-      </c>
-      <c r="N51" s="3" t="n">
-        <v>519</v>
-      </c>
-      <c r="O51" s="3" t="n">
-        <v>520</v>
-      </c>
-      <c r="P51" s="3" t="n">
-        <v>521</v>
-      </c>
-      <c r="Q51" s="3" t="n">
-        <v>522</v>
-      </c>
-      <c r="R51" s="3" t="n">
-        <v>523</v>
-      </c>
-      <c r="S51" s="3" t="n">
-        <v>524</v>
-      </c>
-      <c r="T51" s="3" t="n">
-        <v>525</v>
-      </c>
-      <c r="U51" s="3" t="n">
-        <v>526</v>
-      </c>
-      <c r="V51" s="3" t="n">
-        <v>527</v>
-      </c>
-      <c r="W51" s="3" t="n">
-        <v>528</v>
-      </c>
-      <c r="X51" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="R52" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="S52" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="T52" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="U52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V52" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="W52" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="49"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="50"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:W10,A13:W23,A11:R12,T11:W12">
+  <conditionalFormatting sqref="S12">
     <cfRule aboveAverage="0" bottom="0" dxfId="0" percent="0" priority="2" rank="0" text="D" type="containsText"/>
     <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="3" rank="0" text="U" type="containsText"/>
     <cfRule aboveAverage="0" bottom="0" dxfId="2" percent="0" priority="4" rank="0" text="R" type="containsText"/>
@@ -4027,7 +2262,7 @@
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
+  <conditionalFormatting sqref="S11">
     <cfRule aboveAverage="0" bottom="0" dxfId="0" percent="0" priority="7" rank="0" text="D" type="containsText"/>
     <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="8" rank="0" text="U" type="containsText"/>
     <cfRule aboveAverage="0" bottom="0" dxfId="2" percent="0" priority="9" rank="0" text="R" type="containsText"/>
@@ -4037,18 +2272,15 @@
     <cfRule aboveAverage="0" bottom="0" dxfId="4" operator="equal" percent="0" priority="11" rank="0" text="" type="cellIs">
       <formula>"W"</formula>
     </cfRule>
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="12" rank="0" text="L" type="containsText"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule aboveAverage="0" bottom="0" dxfId="0" percent="0" priority="12" rank="0" text="D" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="13" rank="0" text="U" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" percent="0" priority="14" rank="0" text="R" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="3" operator="equal" percent="0" priority="15" rank="0" text="" type="cellIs">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="4" operator="equal" percent="0" priority="16" rank="0" text="" type="cellIs">
-      <formula>"W"</formula>
-    </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="17" rank="0" text="L" type="containsText"/>
+  <conditionalFormatting sqref="A1:W23">
+    <cfRule aboveAverage="0" bottom="0" dxfId="4" percent="0" priority="13" rank="0" text="W" type="containsText"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="14" rank="0" text="D" type="containsText"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="15" rank="0" text="L" type="containsText"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="16" rank="0" text="U" type="containsText"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="17" rank="0" text="R" type="containsText"/>
+    <cfRule aboveAverage="0" bottom="0" dxfId="3" percent="0" priority="18" rank="0" text="X" type="containsText"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ClueBoard/ClueBoard.xlsx
+++ b/ClueBoard/ClueBoard.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Dropbox\School\Software Engineering\Clue\ClueBoard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="300" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="34">
   <si>
     <t>F</t>
   </si>
@@ -124,39 +128,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF800000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +160,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -182,108 +168,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFE46C0A"/>
@@ -292,20 +195,1631 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -364,30 +1878,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="F7F7F7"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A26" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="Z40" activeCellId="0" pane="topLeft" sqref="Z40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X24" sqref="A1:X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="23" min="1" style="0" width="4.43255813953488"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.85581395348837"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.66511627906977"/>
+    <col min="1" max="23" width="4.42578125"/>
+    <col min="24" max="24" width="4.85546875"/>
+    <col min="25" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,11 +2245,11 @@
       <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="0" t="n">
+      <c r="X1">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,11 +2319,11 @@
       <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,17 +2393,17 @@
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="0" t="s">
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,17 +2473,17 @@
       <c r="W4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="Z4" t="s">
         <v>1</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AA4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,17 +2553,17 @@
       <c r="W5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>4</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AA5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,17 +2633,17 @@
       <c r="W6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>5</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="Z6" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="0" t="s">
+      <c r="AA6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,17 +2713,17 @@
       <c r="W7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>6</v>
       </c>
-      <c r="Z7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA7" s="0" t="s">
+      <c r="Z7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1005,17 +2793,17 @@
       <c r="W8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>7</v>
       </c>
-      <c r="Z8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA8" s="0" t="s">
+      <c r="Z8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,17 +2873,17 @@
       <c r="W9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="Z9" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="0" t="s">
+      <c r="Z9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1165,17 +2953,17 @@
       <c r="W10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10">
         <v>9</v>
       </c>
-      <c r="Z10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="0" t="s">
+      <c r="Z10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="11">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1245,17 +3033,17 @@
       <c r="W11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>10</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="Z11" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="0" t="s">
+      <c r="AA11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="12">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,17 +3113,17 @@
       <c r="W12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>11</v>
       </c>
-      <c r="Z12" s="0" t="s">
+      <c r="Z12" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="0" t="s">
+      <c r="AA12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,17 +3193,17 @@
       <c r="W13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13">
         <v>12</v>
       </c>
-      <c r="Z13" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="0" t="s">
+      <c r="Z13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="14">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1485,11 +3273,11 @@
       <c r="W14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1559,11 +3347,11 @@
       <c r="W15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1633,11 +3421,11 @@
       <c r="W16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1707,11 +3495,11 @@
       <c r="W17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1781,11 +3569,11 @@
       <c r="W18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1855,11 +3643,11 @@
       <c r="W19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,11 +3717,11 @@
       <c r="W20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2003,11 +3791,11 @@
       <c r="W21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2077,11 +3865,11 @@
       <c r="W22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2151,195 +3939,3758 @@
       <c r="W23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>6</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>7</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>8</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24">
         <v>9</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>10</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>11</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24">
         <v>12</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24">
         <v>13</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24">
         <v>14</v>
       </c>
-      <c r="P24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="0" t="n">
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24">
         <v>16</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24">
         <v>17</v>
       </c>
-      <c r="S24" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="T24" s="0" t="n">
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
         <v>19</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24">
         <v>20</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24">
         <v>21</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="49"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="50"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52"/>
   </sheetData>
   <conditionalFormatting sqref="S12">
-    <cfRule aboveAverage="0" bottom="0" dxfId="0" percent="0" priority="2" rank="0" text="D" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="3" rank="0" text="U" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" percent="0" priority="4" rank="0" text="R" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="3" operator="equal" percent="0" priority="5" rank="0" text="" type="cellIs">
+    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="123" priority="4" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="4" operator="equal" percent="0" priority="6" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule aboveAverage="0" bottom="0" dxfId="0" percent="0" priority="7" rank="0" text="D" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="8" rank="0" text="U" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" percent="0" priority="9" rank="0" text="R" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="3" operator="equal" percent="0" priority="10" rank="0" text="" type="cellIs">
+    <cfRule type="containsText" dxfId="120" priority="7" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="119" priority="8" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="118" priority="9" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="4" operator="equal" percent="0" priority="11" rank="0" text="" type="cellIs">
+    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="12" rank="0" text="L" type="containsText"/>
+    <cfRule type="containsText" dxfId="115" priority="12" operator="containsText" text="L"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:W23">
-    <cfRule aboveAverage="0" bottom="0" dxfId="4" percent="0" priority="13" rank="0" text="W" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="14" rank="0" text="D" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="15" rank="0" text="L" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="16" rank="0" text="U" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" percent="0" priority="17" rank="0" text="R" type="containsText"/>
-    <cfRule aboveAverage="0" bottom="0" dxfId="3" percent="0" priority="18" rank="0" text="X" type="containsText"/>
+    <cfRule type="containsText" dxfId="114" priority="13" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="113" priority="14" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="112" priority="15" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="111" priority="16" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="110" priority="17" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="109" priority="18" operator="containsText" text="X"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.66511627906977"/>
+    <col min="1" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="1025" width="8.7109375"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>14</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+      <c r="R24">
+        <v>17</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>19</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>21</v>
+      </c>
+      <c r="W24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1">
+        <v>11</v>
+      </c>
+      <c r="M28" s="1">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13</v>
+      </c>
+      <c r="O28" s="1">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>16</v>
+      </c>
+      <c r="R28" s="1">
+        <v>17</v>
+      </c>
+      <c r="S28" s="1">
+        <v>18</v>
+      </c>
+      <c r="T28" s="1">
+        <v>19</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1">
+        <v>21</v>
+      </c>
+      <c r="W28" s="1">
+        <v>22</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1">
+        <v>30</v>
+      </c>
+      <c r="I29" s="1">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1">
+        <v>32</v>
+      </c>
+      <c r="K29" s="1">
+        <v>33</v>
+      </c>
+      <c r="L29" s="1">
+        <v>34</v>
+      </c>
+      <c r="M29" s="1">
+        <v>35</v>
+      </c>
+      <c r="N29" s="1">
+        <v>36</v>
+      </c>
+      <c r="O29" s="1">
+        <v>37</v>
+      </c>
+      <c r="P29" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>39</v>
+      </c>
+      <c r="R29" s="1">
+        <v>40</v>
+      </c>
+      <c r="S29" s="1">
+        <v>41</v>
+      </c>
+      <c r="T29" s="1">
+        <v>42</v>
+      </c>
+      <c r="U29" s="1">
+        <v>43</v>
+      </c>
+      <c r="V29" s="1">
+        <v>44</v>
+      </c>
+      <c r="W29" s="1">
+        <v>45</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1">
+        <v>53</v>
+      </c>
+      <c r="I30" s="1">
+        <v>54</v>
+      </c>
+      <c r="J30" s="1">
+        <v>55</v>
+      </c>
+      <c r="K30" s="1">
+        <v>56</v>
+      </c>
+      <c r="L30" s="1">
+        <v>57</v>
+      </c>
+      <c r="M30" s="1">
+        <v>58</v>
+      </c>
+      <c r="N30" s="1">
+        <v>59</v>
+      </c>
+      <c r="O30" s="1">
+        <v>60</v>
+      </c>
+      <c r="P30" s="1">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>62</v>
+      </c>
+      <c r="R30" s="1">
+        <v>63</v>
+      </c>
+      <c r="S30" s="1">
+        <v>64</v>
+      </c>
+      <c r="T30" s="1">
+        <v>65</v>
+      </c>
+      <c r="U30" s="1">
+        <v>66</v>
+      </c>
+      <c r="V30" s="1">
+        <v>67</v>
+      </c>
+      <c r="W30" s="1">
+        <v>68</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1">
+        <v>76</v>
+      </c>
+      <c r="I31" s="1">
+        <v>77</v>
+      </c>
+      <c r="J31" s="1">
+        <v>78</v>
+      </c>
+      <c r="K31" s="1">
+        <v>79</v>
+      </c>
+      <c r="L31" s="1">
+        <v>80</v>
+      </c>
+      <c r="M31" s="1">
+        <v>81</v>
+      </c>
+      <c r="N31" s="1">
+        <v>82</v>
+      </c>
+      <c r="O31" s="1">
+        <v>83</v>
+      </c>
+      <c r="P31" s="1">
+        <v>84</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>85</v>
+      </c>
+      <c r="R31" s="1">
+        <v>86</v>
+      </c>
+      <c r="S31" s="1">
+        <v>87</v>
+      </c>
+      <c r="T31" s="1">
+        <v>88</v>
+      </c>
+      <c r="U31" s="1">
+        <v>89</v>
+      </c>
+      <c r="V31" s="1">
+        <v>90</v>
+      </c>
+      <c r="W31" s="1">
+        <v>91</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1">
+        <v>96</v>
+      </c>
+      <c r="F32" s="1">
+        <v>97</v>
+      </c>
+      <c r="G32" s="1">
+        <v>98</v>
+      </c>
+      <c r="H32" s="1">
+        <v>99</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>101</v>
+      </c>
+      <c r="K32" s="1">
+        <v>102</v>
+      </c>
+      <c r="L32" s="1">
+        <v>103</v>
+      </c>
+      <c r="M32" s="1">
+        <v>104</v>
+      </c>
+      <c r="N32" s="1">
+        <v>105</v>
+      </c>
+      <c r="O32" s="1">
+        <v>106</v>
+      </c>
+      <c r="P32" s="1">
+        <v>107</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>108</v>
+      </c>
+      <c r="R32" s="1">
+        <v>109</v>
+      </c>
+      <c r="S32" s="1">
+        <v>110</v>
+      </c>
+      <c r="T32" s="1">
+        <v>111</v>
+      </c>
+      <c r="U32" s="1">
+        <v>112</v>
+      </c>
+      <c r="V32" s="1">
+        <v>113</v>
+      </c>
+      <c r="W32" s="1">
+        <v>114</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>115</v>
+      </c>
+      <c r="B33" s="1">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1">
+        <v>117</v>
+      </c>
+      <c r="D33" s="1">
+        <v>118</v>
+      </c>
+      <c r="E33" s="1">
+        <v>119</v>
+      </c>
+      <c r="F33" s="1">
+        <v>120</v>
+      </c>
+      <c r="G33" s="1">
+        <v>121</v>
+      </c>
+      <c r="H33" s="1">
+        <v>122</v>
+      </c>
+      <c r="I33" s="1">
+        <v>123</v>
+      </c>
+      <c r="J33" s="1">
+        <v>124</v>
+      </c>
+      <c r="K33" s="1">
+        <v>125</v>
+      </c>
+      <c r="L33" s="1">
+        <v>126</v>
+      </c>
+      <c r="M33" s="1">
+        <v>127</v>
+      </c>
+      <c r="N33" s="1">
+        <v>128</v>
+      </c>
+      <c r="O33" s="1">
+        <v>129</v>
+      </c>
+      <c r="P33" s="1">
+        <v>130</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>131</v>
+      </c>
+      <c r="R33" s="1">
+        <v>132</v>
+      </c>
+      <c r="S33" s="1">
+        <v>133</v>
+      </c>
+      <c r="T33" s="1">
+        <v>134</v>
+      </c>
+      <c r="U33" s="1">
+        <v>135</v>
+      </c>
+      <c r="V33" s="1">
+        <v>136</v>
+      </c>
+      <c r="W33" s="1">
+        <v>137</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>138</v>
+      </c>
+      <c r="B34" s="1">
+        <v>139</v>
+      </c>
+      <c r="C34" s="1">
+        <v>140</v>
+      </c>
+      <c r="D34" s="1">
+        <v>141</v>
+      </c>
+      <c r="E34" s="1">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1">
+        <v>143</v>
+      </c>
+      <c r="G34" s="1">
+        <v>144</v>
+      </c>
+      <c r="H34" s="1">
+        <v>145</v>
+      </c>
+      <c r="I34" s="1">
+        <v>146</v>
+      </c>
+      <c r="J34" s="1">
+        <v>147</v>
+      </c>
+      <c r="K34" s="1">
+        <v>148</v>
+      </c>
+      <c r="L34" s="1">
+        <v>149</v>
+      </c>
+      <c r="M34" s="1">
+        <v>150</v>
+      </c>
+      <c r="N34" s="1">
+        <v>151</v>
+      </c>
+      <c r="O34" s="1">
+        <v>152</v>
+      </c>
+      <c r="P34" s="1">
+        <v>153</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>154</v>
+      </c>
+      <c r="R34" s="1">
+        <v>155</v>
+      </c>
+      <c r="S34" s="1">
+        <v>156</v>
+      </c>
+      <c r="T34" s="1">
+        <v>157</v>
+      </c>
+      <c r="U34" s="1">
+        <v>158</v>
+      </c>
+      <c r="V34" s="1">
+        <v>159</v>
+      </c>
+      <c r="W34" s="1">
+        <v>160</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>161</v>
+      </c>
+      <c r="B35" s="1">
+        <v>162</v>
+      </c>
+      <c r="C35" s="1">
+        <v>163</v>
+      </c>
+      <c r="D35" s="1">
+        <v>164</v>
+      </c>
+      <c r="E35" s="1">
+        <v>165</v>
+      </c>
+      <c r="F35" s="1">
+        <v>166</v>
+      </c>
+      <c r="G35" s="1">
+        <v>167</v>
+      </c>
+      <c r="H35" s="1">
+        <v>168</v>
+      </c>
+      <c r="I35" s="1">
+        <v>169</v>
+      </c>
+      <c r="J35" s="1">
+        <v>170</v>
+      </c>
+      <c r="K35" s="1">
+        <v>171</v>
+      </c>
+      <c r="L35" s="1">
+        <v>172</v>
+      </c>
+      <c r="M35" s="1">
+        <v>173</v>
+      </c>
+      <c r="N35" s="1">
+        <v>174</v>
+      </c>
+      <c r="O35" s="1">
+        <v>175</v>
+      </c>
+      <c r="P35" s="1">
+        <v>176</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>177</v>
+      </c>
+      <c r="R35" s="1">
+        <v>178</v>
+      </c>
+      <c r="S35" s="1">
+        <v>179</v>
+      </c>
+      <c r="T35" s="1">
+        <v>180</v>
+      </c>
+      <c r="U35" s="1">
+        <v>181</v>
+      </c>
+      <c r="V35" s="1">
+        <v>182</v>
+      </c>
+      <c r="W35" s="1">
+        <v>183</v>
+      </c>
+      <c r="X35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>184</v>
+      </c>
+      <c r="B36" s="1">
+        <v>185</v>
+      </c>
+      <c r="C36" s="1">
+        <v>186</v>
+      </c>
+      <c r="D36" s="1">
+        <v>187</v>
+      </c>
+      <c r="E36" s="1">
+        <v>188</v>
+      </c>
+      <c r="F36" s="1">
+        <v>189</v>
+      </c>
+      <c r="G36" s="1">
+        <v>190</v>
+      </c>
+      <c r="H36" s="1">
+        <v>191</v>
+      </c>
+      <c r="I36" s="1">
+        <v>192</v>
+      </c>
+      <c r="J36" s="1">
+        <v>193</v>
+      </c>
+      <c r="K36" s="1">
+        <v>194</v>
+      </c>
+      <c r="L36" s="1">
+        <v>195</v>
+      </c>
+      <c r="M36" s="1">
+        <v>196</v>
+      </c>
+      <c r="N36" s="1">
+        <v>197</v>
+      </c>
+      <c r="O36" s="1">
+        <v>198</v>
+      </c>
+      <c r="P36" s="1">
+        <v>199</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>200</v>
+      </c>
+      <c r="R36" s="1">
+        <v>201</v>
+      </c>
+      <c r="S36" s="1">
+        <v>202</v>
+      </c>
+      <c r="T36" s="1">
+        <v>203</v>
+      </c>
+      <c r="U36" s="1">
+        <v>204</v>
+      </c>
+      <c r="V36" s="1">
+        <v>205</v>
+      </c>
+      <c r="W36" s="1">
+        <v>206</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>207</v>
+      </c>
+      <c r="B37" s="1">
+        <v>208</v>
+      </c>
+      <c r="C37" s="1">
+        <v>209</v>
+      </c>
+      <c r="D37" s="1">
+        <v>210</v>
+      </c>
+      <c r="E37" s="1">
+        <v>211</v>
+      </c>
+      <c r="F37" s="1">
+        <v>212</v>
+      </c>
+      <c r="G37" s="1">
+        <v>213</v>
+      </c>
+      <c r="H37" s="1">
+        <v>214</v>
+      </c>
+      <c r="I37" s="1">
+        <v>215</v>
+      </c>
+      <c r="J37" s="1">
+        <v>216</v>
+      </c>
+      <c r="K37" s="1">
+        <v>217</v>
+      </c>
+      <c r="L37" s="1">
+        <v>218</v>
+      </c>
+      <c r="M37" s="1">
+        <v>219</v>
+      </c>
+      <c r="N37" s="1">
+        <v>220</v>
+      </c>
+      <c r="O37" s="1">
+        <v>221</v>
+      </c>
+      <c r="P37" s="1">
+        <v>222</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>223</v>
+      </c>
+      <c r="R37" s="1">
+        <v>224</v>
+      </c>
+      <c r="S37" s="1">
+        <v>225</v>
+      </c>
+      <c r="T37" s="1">
+        <v>226</v>
+      </c>
+      <c r="U37" s="1">
+        <v>227</v>
+      </c>
+      <c r="V37" s="1">
+        <v>228</v>
+      </c>
+      <c r="W37" s="1">
+        <v>229</v>
+      </c>
+      <c r="X37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>230</v>
+      </c>
+      <c r="B38" s="1">
+        <v>231</v>
+      </c>
+      <c r="C38" s="1">
+        <v>232</v>
+      </c>
+      <c r="D38" s="1">
+        <v>233</v>
+      </c>
+      <c r="E38" s="1">
+        <v>234</v>
+      </c>
+      <c r="F38" s="1">
+        <v>235</v>
+      </c>
+      <c r="G38" s="1">
+        <v>236</v>
+      </c>
+      <c r="H38" s="1">
+        <v>237</v>
+      </c>
+      <c r="I38" s="1">
+        <v>238</v>
+      </c>
+      <c r="J38" s="1">
+        <v>239</v>
+      </c>
+      <c r="K38" s="1">
+        <v>240</v>
+      </c>
+      <c r="L38" s="1">
+        <v>241</v>
+      </c>
+      <c r="M38" s="1">
+        <v>242</v>
+      </c>
+      <c r="N38" s="1">
+        <v>243</v>
+      </c>
+      <c r="O38" s="1">
+        <v>244</v>
+      </c>
+      <c r="P38" s="1">
+        <v>245</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>246</v>
+      </c>
+      <c r="R38" s="1">
+        <v>247</v>
+      </c>
+      <c r="S38" s="1">
+        <v>248</v>
+      </c>
+      <c r="T38" s="1">
+        <v>249</v>
+      </c>
+      <c r="U38" s="1">
+        <v>250</v>
+      </c>
+      <c r="V38" s="1">
+        <v>251</v>
+      </c>
+      <c r="W38" s="1">
+        <v>252</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1">
+        <v>254</v>
+      </c>
+      <c r="C39" s="1">
+        <v>255</v>
+      </c>
+      <c r="D39" s="1">
+        <v>256</v>
+      </c>
+      <c r="E39" s="1">
+        <v>257</v>
+      </c>
+      <c r="F39" s="1">
+        <v>258</v>
+      </c>
+      <c r="G39" s="1">
+        <v>259</v>
+      </c>
+      <c r="H39" s="1">
+        <v>260</v>
+      </c>
+      <c r="I39" s="1">
+        <v>261</v>
+      </c>
+      <c r="J39" s="1">
+        <v>262</v>
+      </c>
+      <c r="K39" s="1">
+        <v>263</v>
+      </c>
+      <c r="L39" s="1">
+        <v>264</v>
+      </c>
+      <c r="M39" s="1">
+        <v>265</v>
+      </c>
+      <c r="N39" s="1">
+        <v>266</v>
+      </c>
+      <c r="O39" s="1">
+        <v>267</v>
+      </c>
+      <c r="P39" s="1">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>269</v>
+      </c>
+      <c r="R39" s="1">
+        <v>270</v>
+      </c>
+      <c r="S39" s="1">
+        <v>271</v>
+      </c>
+      <c r="T39" s="1">
+        <v>272</v>
+      </c>
+      <c r="U39" s="1">
+        <v>273</v>
+      </c>
+      <c r="V39" s="1">
+        <v>274</v>
+      </c>
+      <c r="W39" s="1">
+        <v>275</v>
+      </c>
+      <c r="X39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>276</v>
+      </c>
+      <c r="B40" s="1">
+        <v>277</v>
+      </c>
+      <c r="C40" s="1">
+        <v>278</v>
+      </c>
+      <c r="D40" s="1">
+        <v>279</v>
+      </c>
+      <c r="E40" s="1">
+        <v>280</v>
+      </c>
+      <c r="F40" s="1">
+        <v>281</v>
+      </c>
+      <c r="G40" s="1">
+        <v>282</v>
+      </c>
+      <c r="H40" s="1">
+        <v>283</v>
+      </c>
+      <c r="I40" s="1">
+        <v>284</v>
+      </c>
+      <c r="J40" s="1">
+        <v>285</v>
+      </c>
+      <c r="K40" s="1">
+        <v>286</v>
+      </c>
+      <c r="L40" s="1">
+        <v>287</v>
+      </c>
+      <c r="M40" s="1">
+        <v>288</v>
+      </c>
+      <c r="N40" s="1">
+        <v>289</v>
+      </c>
+      <c r="O40" s="1">
+        <v>290</v>
+      </c>
+      <c r="P40" s="1">
+        <v>291</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>292</v>
+      </c>
+      <c r="R40" s="1">
+        <v>293</v>
+      </c>
+      <c r="S40" s="1">
+        <v>294</v>
+      </c>
+      <c r="T40" s="1">
+        <v>295</v>
+      </c>
+      <c r="U40" s="1">
+        <v>296</v>
+      </c>
+      <c r="V40" s="1">
+        <v>297</v>
+      </c>
+      <c r="W40" s="1">
+        <v>298</v>
+      </c>
+      <c r="X40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>299</v>
+      </c>
+      <c r="B41" s="1">
+        <v>300</v>
+      </c>
+      <c r="C41" s="1">
+        <v>301</v>
+      </c>
+      <c r="D41" s="1">
+        <v>302</v>
+      </c>
+      <c r="E41" s="1">
+        <v>303</v>
+      </c>
+      <c r="F41" s="1">
+        <v>304</v>
+      </c>
+      <c r="G41" s="1">
+        <v>305</v>
+      </c>
+      <c r="H41" s="1">
+        <v>306</v>
+      </c>
+      <c r="I41" s="1">
+        <v>307</v>
+      </c>
+      <c r="J41" s="1">
+        <v>308</v>
+      </c>
+      <c r="K41" s="1">
+        <v>309</v>
+      </c>
+      <c r="L41" s="1">
+        <v>310</v>
+      </c>
+      <c r="M41" s="1">
+        <v>311</v>
+      </c>
+      <c r="N41" s="1">
+        <v>312</v>
+      </c>
+      <c r="O41" s="1">
+        <v>313</v>
+      </c>
+      <c r="P41" s="1">
+        <v>314</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>315</v>
+      </c>
+      <c r="R41" s="1">
+        <v>316</v>
+      </c>
+      <c r="S41" s="1">
+        <v>317</v>
+      </c>
+      <c r="T41" s="1">
+        <v>318</v>
+      </c>
+      <c r="U41" s="1">
+        <v>319</v>
+      </c>
+      <c r="V41" s="1">
+        <v>320</v>
+      </c>
+      <c r="W41" s="1">
+        <v>321</v>
+      </c>
+      <c r="X41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>322</v>
+      </c>
+      <c r="B42" s="1">
+        <v>323</v>
+      </c>
+      <c r="C42" s="1">
+        <v>324</v>
+      </c>
+      <c r="D42" s="1">
+        <v>325</v>
+      </c>
+      <c r="E42" s="1">
+        <v>326</v>
+      </c>
+      <c r="F42" s="1">
+        <v>327</v>
+      </c>
+      <c r="G42" s="1">
+        <v>328</v>
+      </c>
+      <c r="H42" s="1">
+        <v>329</v>
+      </c>
+      <c r="I42" s="1">
+        <v>330</v>
+      </c>
+      <c r="J42" s="1">
+        <v>331</v>
+      </c>
+      <c r="K42" s="1">
+        <v>332</v>
+      </c>
+      <c r="L42" s="1">
+        <v>333</v>
+      </c>
+      <c r="M42" s="1">
+        <v>334</v>
+      </c>
+      <c r="N42" s="1">
+        <v>335</v>
+      </c>
+      <c r="O42" s="1">
+        <v>336</v>
+      </c>
+      <c r="P42" s="1">
+        <v>337</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>338</v>
+      </c>
+      <c r="R42" s="1">
+        <v>339</v>
+      </c>
+      <c r="S42" s="1">
+        <v>340</v>
+      </c>
+      <c r="T42" s="1">
+        <v>341</v>
+      </c>
+      <c r="U42" s="1">
+        <v>342</v>
+      </c>
+      <c r="V42" s="1">
+        <v>343</v>
+      </c>
+      <c r="W42" s="1">
+        <v>344</v>
+      </c>
+      <c r="X42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>345</v>
+      </c>
+      <c r="B43" s="1">
+        <v>346</v>
+      </c>
+      <c r="C43" s="1">
+        <v>347</v>
+      </c>
+      <c r="D43" s="1">
+        <v>348</v>
+      </c>
+      <c r="E43" s="1">
+        <v>349</v>
+      </c>
+      <c r="F43" s="1">
+        <v>350</v>
+      </c>
+      <c r="G43" s="1">
+        <v>351</v>
+      </c>
+      <c r="H43" s="1">
+        <v>352</v>
+      </c>
+      <c r="I43" s="1">
+        <v>353</v>
+      </c>
+      <c r="J43" s="1">
+        <v>354</v>
+      </c>
+      <c r="K43" s="1">
+        <v>355</v>
+      </c>
+      <c r="L43" s="1">
+        <v>356</v>
+      </c>
+      <c r="M43" s="1">
+        <v>357</v>
+      </c>
+      <c r="N43" s="1">
+        <v>358</v>
+      </c>
+      <c r="O43" s="1">
+        <v>359</v>
+      </c>
+      <c r="P43" s="1">
+        <v>360</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>361</v>
+      </c>
+      <c r="R43" s="1">
+        <v>362</v>
+      </c>
+      <c r="S43" s="1">
+        <v>363</v>
+      </c>
+      <c r="T43" s="1">
+        <v>364</v>
+      </c>
+      <c r="U43" s="1">
+        <v>365</v>
+      </c>
+      <c r="V43" s="1">
+        <v>366</v>
+      </c>
+      <c r="W43" s="1">
+        <v>367</v>
+      </c>
+      <c r="X43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>368</v>
+      </c>
+      <c r="B44" s="1">
+        <v>369</v>
+      </c>
+      <c r="C44" s="1">
+        <v>370</v>
+      </c>
+      <c r="D44" s="1">
+        <v>371</v>
+      </c>
+      <c r="E44" s="1">
+        <v>372</v>
+      </c>
+      <c r="F44" s="1">
+        <v>373</v>
+      </c>
+      <c r="G44" s="1">
+        <v>374</v>
+      </c>
+      <c r="H44" s="1">
+        <v>375</v>
+      </c>
+      <c r="I44" s="1">
+        <v>376</v>
+      </c>
+      <c r="J44" s="1">
+        <v>377</v>
+      </c>
+      <c r="K44" s="1">
+        <v>378</v>
+      </c>
+      <c r="L44" s="1">
+        <v>379</v>
+      </c>
+      <c r="M44" s="1">
+        <v>380</v>
+      </c>
+      <c r="N44" s="1">
+        <v>381</v>
+      </c>
+      <c r="O44" s="1">
+        <v>382</v>
+      </c>
+      <c r="P44" s="1">
+        <v>383</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>384</v>
+      </c>
+      <c r="R44" s="1">
+        <v>385</v>
+      </c>
+      <c r="S44" s="1">
+        <v>386</v>
+      </c>
+      <c r="T44" s="1">
+        <v>387</v>
+      </c>
+      <c r="U44" s="1">
+        <v>388</v>
+      </c>
+      <c r="V44" s="1">
+        <v>389</v>
+      </c>
+      <c r="W44" s="1">
+        <v>390</v>
+      </c>
+      <c r="X44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>391</v>
+      </c>
+      <c r="B45" s="1">
+        <v>392</v>
+      </c>
+      <c r="C45" s="1">
+        <v>393</v>
+      </c>
+      <c r="D45" s="1">
+        <v>394</v>
+      </c>
+      <c r="E45" s="1">
+        <v>395</v>
+      </c>
+      <c r="F45" s="1">
+        <v>396</v>
+      </c>
+      <c r="G45" s="1">
+        <v>397</v>
+      </c>
+      <c r="H45" s="1">
+        <v>398</v>
+      </c>
+      <c r="I45" s="1">
+        <v>399</v>
+      </c>
+      <c r="J45" s="1">
+        <v>400</v>
+      </c>
+      <c r="K45" s="1">
+        <v>401</v>
+      </c>
+      <c r="L45" s="1">
+        <v>402</v>
+      </c>
+      <c r="M45" s="1">
+        <v>403</v>
+      </c>
+      <c r="N45" s="1">
+        <v>404</v>
+      </c>
+      <c r="O45" s="1">
+        <v>405</v>
+      </c>
+      <c r="P45" s="1">
+        <v>406</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>407</v>
+      </c>
+      <c r="R45" s="1">
+        <v>408</v>
+      </c>
+      <c r="S45" s="1">
+        <v>409</v>
+      </c>
+      <c r="T45" s="1">
+        <v>410</v>
+      </c>
+      <c r="U45" s="1">
+        <v>411</v>
+      </c>
+      <c r="V45" s="1">
+        <v>412</v>
+      </c>
+      <c r="W45" s="1">
+        <v>413</v>
+      </c>
+      <c r="X45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>414</v>
+      </c>
+      <c r="B46" s="1">
+        <v>415</v>
+      </c>
+      <c r="C46" s="1">
+        <v>416</v>
+      </c>
+      <c r="D46" s="1">
+        <v>417</v>
+      </c>
+      <c r="E46" s="1">
+        <v>418</v>
+      </c>
+      <c r="F46" s="1">
+        <v>419</v>
+      </c>
+      <c r="G46" s="1">
+        <v>420</v>
+      </c>
+      <c r="H46" s="1">
+        <v>421</v>
+      </c>
+      <c r="I46" s="1">
+        <v>422</v>
+      </c>
+      <c r="J46" s="1">
+        <v>423</v>
+      </c>
+      <c r="K46" s="1">
+        <v>424</v>
+      </c>
+      <c r="L46" s="1">
+        <v>425</v>
+      </c>
+      <c r="M46" s="1">
+        <v>426</v>
+      </c>
+      <c r="N46" s="1">
+        <v>427</v>
+      </c>
+      <c r="O46" s="1">
+        <v>428</v>
+      </c>
+      <c r="P46" s="1">
+        <v>429</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>430</v>
+      </c>
+      <c r="R46" s="1">
+        <v>431</v>
+      </c>
+      <c r="S46" s="1">
+        <v>432</v>
+      </c>
+      <c r="T46" s="1">
+        <v>433</v>
+      </c>
+      <c r="U46" s="1">
+        <v>434</v>
+      </c>
+      <c r="V46" s="1">
+        <v>435</v>
+      </c>
+      <c r="W46" s="1">
+        <v>436</v>
+      </c>
+      <c r="X46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>437</v>
+      </c>
+      <c r="B47" s="1">
+        <v>438</v>
+      </c>
+      <c r="C47" s="1">
+        <v>439</v>
+      </c>
+      <c r="D47" s="1">
+        <v>440</v>
+      </c>
+      <c r="E47" s="1">
+        <v>441</v>
+      </c>
+      <c r="F47" s="1">
+        <v>442</v>
+      </c>
+      <c r="G47" s="1">
+        <v>443</v>
+      </c>
+      <c r="H47" s="1">
+        <v>444</v>
+      </c>
+      <c r="I47" s="1">
+        <v>445</v>
+      </c>
+      <c r="J47" s="1">
+        <v>446</v>
+      </c>
+      <c r="K47" s="1">
+        <v>447</v>
+      </c>
+      <c r="L47" s="1">
+        <v>448</v>
+      </c>
+      <c r="M47" s="1">
+        <v>449</v>
+      </c>
+      <c r="N47" s="1">
+        <v>450</v>
+      </c>
+      <c r="O47" s="1">
+        <v>451</v>
+      </c>
+      <c r="P47" s="1">
+        <v>452</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>453</v>
+      </c>
+      <c r="R47" s="1">
+        <v>454</v>
+      </c>
+      <c r="S47" s="1">
+        <v>455</v>
+      </c>
+      <c r="T47" s="1">
+        <v>456</v>
+      </c>
+      <c r="U47" s="1">
+        <v>457</v>
+      </c>
+      <c r="V47" s="1">
+        <v>458</v>
+      </c>
+      <c r="W47" s="1">
+        <v>459</v>
+      </c>
+      <c r="X47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>460</v>
+      </c>
+      <c r="B48" s="1">
+        <v>461</v>
+      </c>
+      <c r="C48" s="1">
+        <v>462</v>
+      </c>
+      <c r="D48" s="1">
+        <v>463</v>
+      </c>
+      <c r="E48" s="1">
+        <v>464</v>
+      </c>
+      <c r="F48" s="1">
+        <v>465</v>
+      </c>
+      <c r="G48" s="1">
+        <v>466</v>
+      </c>
+      <c r="H48" s="1">
+        <v>467</v>
+      </c>
+      <c r="I48" s="1">
+        <v>468</v>
+      </c>
+      <c r="J48" s="1">
+        <v>469</v>
+      </c>
+      <c r="K48" s="1">
+        <v>470</v>
+      </c>
+      <c r="L48" s="1">
+        <v>471</v>
+      </c>
+      <c r="M48" s="1">
+        <v>472</v>
+      </c>
+      <c r="N48" s="1">
+        <v>473</v>
+      </c>
+      <c r="O48" s="1">
+        <v>474</v>
+      </c>
+      <c r="P48" s="1">
+        <v>475</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>476</v>
+      </c>
+      <c r="R48" s="1">
+        <v>477</v>
+      </c>
+      <c r="S48" s="1">
+        <v>478</v>
+      </c>
+      <c r="T48" s="1">
+        <v>479</v>
+      </c>
+      <c r="U48" s="1">
+        <v>480</v>
+      </c>
+      <c r="V48" s="1">
+        <v>481</v>
+      </c>
+      <c r="W48" s="1">
+        <v>482</v>
+      </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>483</v>
+      </c>
+      <c r="B49" s="1">
+        <v>484</v>
+      </c>
+      <c r="C49" s="1">
+        <v>485</v>
+      </c>
+      <c r="D49" s="1">
+        <v>486</v>
+      </c>
+      <c r="E49" s="1">
+        <v>487</v>
+      </c>
+      <c r="F49" s="1">
+        <v>488</v>
+      </c>
+      <c r="G49" s="1">
+        <v>489</v>
+      </c>
+      <c r="H49" s="1">
+        <v>490</v>
+      </c>
+      <c r="I49" s="1">
+        <v>491</v>
+      </c>
+      <c r="J49" s="1">
+        <v>492</v>
+      </c>
+      <c r="K49" s="1">
+        <v>493</v>
+      </c>
+      <c r="L49" s="1">
+        <v>494</v>
+      </c>
+      <c r="M49" s="1">
+        <v>495</v>
+      </c>
+      <c r="N49" s="1">
+        <v>496</v>
+      </c>
+      <c r="O49" s="1">
+        <v>497</v>
+      </c>
+      <c r="P49" s="1">
+        <v>498</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>499</v>
+      </c>
+      <c r="R49" s="1">
+        <v>500</v>
+      </c>
+      <c r="S49" s="1">
+        <v>501</v>
+      </c>
+      <c r="T49" s="1">
+        <v>502</v>
+      </c>
+      <c r="U49" s="1">
+        <v>503</v>
+      </c>
+      <c r="V49" s="1">
+        <v>504</v>
+      </c>
+      <c r="W49" s="1">
+        <v>505</v>
+      </c>
+      <c r="X49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>506</v>
+      </c>
+      <c r="B50" s="1">
+        <v>507</v>
+      </c>
+      <c r="C50" s="1">
+        <v>508</v>
+      </c>
+      <c r="D50" s="1">
+        <v>509</v>
+      </c>
+      <c r="E50" s="1">
+        <v>510</v>
+      </c>
+      <c r="F50" s="1">
+        <v>511</v>
+      </c>
+      <c r="G50" s="1">
+        <v>512</v>
+      </c>
+      <c r="H50" s="1">
+        <v>513</v>
+      </c>
+      <c r="I50" s="1">
+        <v>514</v>
+      </c>
+      <c r="J50" s="1">
+        <v>515</v>
+      </c>
+      <c r="K50" s="1">
+        <v>516</v>
+      </c>
+      <c r="L50" s="1">
+        <v>517</v>
+      </c>
+      <c r="M50" s="1">
+        <v>518</v>
+      </c>
+      <c r="N50" s="1">
+        <v>519</v>
+      </c>
+      <c r="O50" s="1">
+        <v>520</v>
+      </c>
+      <c r="P50" s="1">
+        <v>521</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>522</v>
+      </c>
+      <c r="R50" s="1">
+        <v>523</v>
+      </c>
+      <c r="S50" s="1">
+        <v>524</v>
+      </c>
+      <c r="T50" s="1">
+        <v>525</v>
+      </c>
+      <c r="U50" s="1">
+        <v>526</v>
+      </c>
+      <c r="V50" s="1">
+        <v>527</v>
+      </c>
+      <c r="W50" s="1">
+        <v>528</v>
+      </c>
+      <c r="X50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>11</v>
+      </c>
+      <c r="M51">
+        <v>12</v>
+      </c>
+      <c r="N51">
+        <v>13</v>
+      </c>
+      <c r="O51">
+        <v>14</v>
+      </c>
+      <c r="P51">
+        <v>15</v>
+      </c>
+      <c r="Q51">
+        <v>16</v>
+      </c>
+      <c r="R51">
+        <v>17</v>
+      </c>
+      <c r="S51">
+        <v>18</v>
+      </c>
+      <c r="T51">
+        <v>19</v>
+      </c>
+      <c r="U51">
+        <v>20</v>
+      </c>
+      <c r="V51">
+        <v>21</v>
+      </c>
+      <c r="W51">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="containsText" dxfId="108" priority="18" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="107" priority="19" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="106" priority="20" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="105" priority="21" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="22" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="containsText" dxfId="98" priority="23" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="97" priority="24" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="96" priority="25" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="95" priority="26" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="28" operator="containsText" text="L"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:W23">
+    <cfRule type="containsText" dxfId="86" priority="29" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="85" priority="30" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="84" priority="31" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="83" priority="32" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="81" priority="34" operator="containsText" text="X"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38">
+    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="L"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:W50">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="X"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.66511627906977"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/ClueBoard/ClueBoard.xlsx
+++ b/ClueBoard/ClueBoard.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -179,7 +179,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="74">
     <dxf>
       <font>
         <sz val="11"/>
@@ -202,6 +202,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF558ED5"/>
         </patternFill>
       </fill>
@@ -267,6 +280,32 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE46C0A"/>
         </patternFill>
       </fill>
@@ -319,6 +358,32 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF558ED5"/>
         </patternFill>
       </fill>
@@ -332,6 +397,84 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -345,6 +488,45 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE46C0A"/>
         </patternFill>
       </fill>
@@ -397,6 +579,32 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF558ED5"/>
         </patternFill>
       </fill>
@@ -410,6 +618,97 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -423,6 +722,32 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE46C0A"/>
         </patternFill>
       </fill>
@@ -475,6 +800,32 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE46C0A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF558ED5"/>
         </patternFill>
       </fill>
@@ -488,7 +839,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF558ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558ED5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -515,1046 +879,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4016,35 +3340,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="125" priority="2" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="123" priority="4" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
+    <cfRule type="containsText" dxfId="73" priority="2" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="120" priority="7" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="119" priority="8" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="118" priority="9" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
+    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="12" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="L"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:W23">
-    <cfRule type="containsText" dxfId="114" priority="13" operator="containsText" text="W"/>
-    <cfRule type="containsText" dxfId="113" priority="14" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="112" priority="15" operator="containsText" text="L"/>
-    <cfRule type="containsText" dxfId="111" priority="16" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="110" priority="17" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="109" priority="18" operator="containsText" text="X"/>
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="61" priority="14" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="59" priority="16" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="57" priority="18" operator="containsText" text="X"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4056,7 +3380,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7612,67 +6936,56 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="108" priority="18" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="107" priority="19" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="106" priority="20" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="105" priority="21" operator="equal">
+  <conditionalFormatting sqref="A1:W23">
+    <cfRule type="containsText" dxfId="0" priority="34" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="L">
+      <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="22" operator="equal">
-      <formula>"W"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="98" priority="23" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="97" priority="24" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="96" priority="25" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="95" priority="26" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
-      <formula>"W"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="28" operator="containsText" text="L"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W23">
-    <cfRule type="containsText" dxfId="86" priority="29" operator="containsText" text="W"/>
-    <cfRule type="containsText" dxfId="85" priority="30" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="84" priority="31" operator="containsText" text="L"/>
-    <cfRule type="containsText" dxfId="83" priority="32" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="81" priority="34" operator="containsText" text="X"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S39">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38">
-    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="L"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:W50">
-    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="W"/>
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="L"/>
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="X"/>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="X"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/ClueBoard/ClueBoard.xlsx
+++ b/ClueBoard/ClueBoard.xlsx
@@ -179,20 +179,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <sz val="11"/>
@@ -488,436 +475,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE46C0A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3340,35 +2898,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S12">
-    <cfRule type="containsText" dxfId="73" priority="2" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="12" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="L"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:W23">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="W"/>
-    <cfRule type="containsText" dxfId="61" priority="14" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="L"/>
-    <cfRule type="containsText" dxfId="59" priority="16" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="57" priority="18" operator="containsText" text="X"/>
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="X"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3380,7 +2938,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6937,55 +6495,55 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:W23">
-    <cfRule type="containsText" dxfId="0" priority="34" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="R"/>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="R"/>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="L"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:W50">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="W"/>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="D"/>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="L"/>
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="U"/>
-    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="X"/>
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="W"/>
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="D"/>
+    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="L"/>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="U"/>
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="X"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
